--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H2">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I2">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J2">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N2">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O2">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P2">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q2">
-        <v>26.7441514314085</v>
+        <v>26.830008220463</v>
       </c>
       <c r="R2">
-        <v>26.7441514314085</v>
+        <v>107.320032881852</v>
       </c>
       <c r="S2">
-        <v>0.1126106511891596</v>
+        <v>0.1055261138456724</v>
       </c>
       <c r="T2">
-        <v>0.1126106511891596</v>
+        <v>0.06840201748859998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H3">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I3">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J3">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P3">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q3">
-        <v>23.49981461901447</v>
+        <v>25.98134685200133</v>
       </c>
       <c r="R3">
-        <v>23.49981461901447</v>
+        <v>155.888081112008</v>
       </c>
       <c r="S3">
-        <v>0.09894983708340381</v>
+        <v>0.1021882119170249</v>
       </c>
       <c r="T3">
-        <v>0.09894983708340381</v>
+        <v>0.09935758463871103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H4">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I4">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J4">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N4">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O4">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P4">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q4">
-        <v>14.70209154147383</v>
+        <v>0.1421186130886667</v>
       </c>
       <c r="R4">
-        <v>14.70209154147383</v>
+        <v>0.8527116785319999</v>
       </c>
       <c r="S4">
-        <v>0.06190557612471643</v>
+        <v>0.0005589720592387091</v>
       </c>
       <c r="T4">
-        <v>0.06190557612471643</v>
+        <v>0.0005434884576665326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H5">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I5">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J5">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N5">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O5">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P5">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q5">
-        <v>26.19337405831116</v>
+        <v>0.6139718339393334</v>
       </c>
       <c r="R5">
-        <v>26.19337405831116</v>
+        <v>3.683831003636</v>
       </c>
       <c r="S5">
-        <v>0.1102915124120771</v>
+        <v>0.002414835698667567</v>
       </c>
       <c r="T5">
-        <v>0.1102915124120771</v>
+        <v>0.002347944423509089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.84597276610613</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H6">
-        <v>4.84597276610613</v>
+        <v>17.241476</v>
       </c>
       <c r="I6">
-        <v>0.2163713281444803</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J6">
-        <v>0.2163713281444803</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N6">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O6">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P6">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q6">
-        <v>15.07896629278974</v>
+        <v>15.20486400403133</v>
       </c>
       <c r="R6">
-        <v>15.07896629278974</v>
+        <v>91.22918402418799</v>
       </c>
       <c r="S6">
-        <v>0.06349246929166864</v>
+        <v>0.05980282215022322</v>
       </c>
       <c r="T6">
-        <v>0.06349246929166864</v>
+        <v>0.05814627589578806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.84597276610613</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H7">
-        <v>4.84597276610613</v>
+        <v>17.241476</v>
       </c>
       <c r="I7">
-        <v>0.2163713281444803</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J7">
-        <v>0.2163713281444803</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N7">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O7">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P7">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q7">
-        <v>13.24973474801568</v>
+        <v>26.299539728371</v>
       </c>
       <c r="R7">
-        <v>13.24973474801568</v>
+        <v>105.198158913484</v>
       </c>
       <c r="S7">
-        <v>0.05579018881509158</v>
+        <v>0.1034397082796335</v>
       </c>
       <c r="T7">
-        <v>0.05579018881509158</v>
+        <v>0.06704960958864437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H8">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I8">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J8">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N8">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O8">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P8">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q8">
-        <v>8.28937658971808</v>
+        <v>15.80406367878833</v>
       </c>
       <c r="R8">
-        <v>8.28937658971808</v>
+        <v>94.82438207272999</v>
       </c>
       <c r="S8">
-        <v>0.03490378440738458</v>
+        <v>0.06215955691433974</v>
       </c>
       <c r="T8">
-        <v>0.03490378440738458</v>
+        <v>0.06043772878848407</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H9">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I9">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J9">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.04756672882646</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N9">
-        <v>3.04756672882646</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O9">
-        <v>0.2873989181635564</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P9">
-        <v>0.2873989181635564</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q9">
-        <v>14.76842537078417</v>
+        <v>15.30416452860222</v>
       </c>
       <c r="R9">
-        <v>14.76842537078417</v>
+        <v>137.73748075742</v>
       </c>
       <c r="S9">
-        <v>0.06218488563033552</v>
+        <v>0.06019338477602258</v>
       </c>
       <c r="T9">
-        <v>0.06218488563033552</v>
+        <v>0.08778902982611682</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H10">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I10">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J10">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.11164899610158</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N10">
-        <v>3.11164899610158</v>
+        <v>0.049457</v>
       </c>
       <c r="O10">
-        <v>0.2934421572218294</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P10">
-        <v>0.2934421572218294</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q10">
-        <v>1.285374242305665</v>
+        <v>0.08371416038111111</v>
       </c>
       <c r="R10">
-        <v>1.285374242305665</v>
+        <v>0.7534274434299999</v>
       </c>
       <c r="S10">
-        <v>0.005412279795791986</v>
+        <v>0.0003292593109283645</v>
       </c>
       <c r="T10">
-        <v>0.005412279795791986</v>
+        <v>0.0004802081752865811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H11">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I11">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J11">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.73417441399742</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N11">
-        <v>2.73417441399742</v>
+        <v>0.213661</v>
       </c>
       <c r="O11">
-        <v>0.2578446474102063</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P11">
-        <v>0.2578446474102063</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q11">
-        <v>1.129445310228281</v>
+        <v>0.3616566152655556</v>
       </c>
       <c r="R11">
-        <v>1.129445310228281</v>
+        <v>3.25490953739</v>
       </c>
       <c r="S11">
-        <v>0.00475571536429379</v>
+        <v>0.001422445227819425</v>
       </c>
       <c r="T11">
-        <v>0.00475571536429379</v>
+        <v>0.002074564954200744</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H12">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I12">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J12">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.71057019711211</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N12">
-        <v>1.71057019711211</v>
+        <v>5.291263</v>
       </c>
       <c r="O12">
-        <v>0.1613142772044078</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P12">
-        <v>0.1613142772044078</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q12">
-        <v>0.7066101844322074</v>
+        <v>8.956338625485554</v>
       </c>
       <c r="R12">
-        <v>0.7066101844322074</v>
+        <v>80.60704762936999</v>
       </c>
       <c r="S12">
-        <v>0.002975298476374666</v>
+        <v>0.03522651210790689</v>
       </c>
       <c r="T12">
-        <v>0.002975298476374666</v>
+        <v>0.05137609944378754</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H13">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I13">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J13">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.04756672882646</v>
+        <v>3.0507295</v>
       </c>
       <c r="N13">
-        <v>3.04756672882646</v>
+        <v>6.101459</v>
       </c>
       <c r="O13">
-        <v>0.2873989181635564</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P13">
-        <v>0.2873989181635564</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q13">
-        <v>1.25890284535595</v>
+        <v>15.49159423190167</v>
       </c>
       <c r="R13">
-        <v>1.25890284535595</v>
+        <v>92.94956539140999</v>
       </c>
       <c r="S13">
-        <v>0.005300817622238286</v>
+        <v>0.06093057158736887</v>
       </c>
       <c r="T13">
-        <v>0.005300817622238286</v>
+        <v>0.05924278652113731</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H14">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I14">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J14">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.11164899610158</v>
+        <v>3.1122635</v>
       </c>
       <c r="N14">
-        <v>3.11164899610158</v>
+        <v>6.224527</v>
       </c>
       <c r="O14">
-        <v>0.2934421572218294</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P14">
-        <v>0.2934421572218294</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q14">
-        <v>19.68351802092801</v>
+        <v>0.8234302277759999</v>
       </c>
       <c r="R14">
-        <v>19.68351802092801</v>
+        <v>4.940581366656</v>
       </c>
       <c r="S14">
-        <v>0.0828806921661049</v>
+        <v>0.003238664380802735</v>
       </c>
       <c r="T14">
-        <v>0.0828806921661049</v>
+        <v>0.00314895293982902</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H15">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I15">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J15">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.73417441399742</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N15">
-        <v>2.73417441399742</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O15">
-        <v>0.2578446474102063</v>
+        <v>0.2732811768830041</v>
       </c>
       <c r="P15">
-        <v>0.2578446474102063</v>
+        <v>0.3358411994729183</v>
       </c>
       <c r="Q15">
-        <v>17.29570765137856</v>
+        <v>0.7973842639359998</v>
       </c>
       <c r="R15">
-        <v>17.29570765137856</v>
+        <v>7.176458375423999</v>
       </c>
       <c r="S15">
-        <v>0.07282642361618179</v>
+        <v>0.003136222021381322</v>
       </c>
       <c r="T15">
-        <v>0.07282642361618179</v>
+        <v>0.004574022371409202</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H16">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I16">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J16">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.71057019711211</v>
+        <v>0.01648566666666667</v>
       </c>
       <c r="N16">
-        <v>1.71057019711211</v>
+        <v>0.049457</v>
       </c>
       <c r="O16">
-        <v>0.1613142772044078</v>
+        <v>0.001494854830393808</v>
       </c>
       <c r="P16">
-        <v>0.1613142772044078</v>
+        <v>0.001837059708990754</v>
       </c>
       <c r="Q16">
-        <v>10.82064183431422</v>
+        <v>0.004361711744</v>
       </c>
       <c r="R16">
-        <v>10.82064183431422</v>
+        <v>0.039255405696</v>
       </c>
       <c r="S16">
-        <v>0.04556209331868162</v>
+        <v>1.715521241280511E-05</v>
       </c>
       <c r="T16">
-        <v>0.04556209331868162</v>
+        <v>2.502001606630092E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H17">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I17">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J17">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>3.04756672882646</v>
+        <v>0.07122033333333334</v>
       </c>
       <c r="N17">
-        <v>3.04756672882646</v>
+        <v>0.213661</v>
       </c>
       <c r="O17">
-        <v>0.2873989181635564</v>
+        <v>0.006457977190625623</v>
       </c>
       <c r="P17">
-        <v>0.2873989181635564</v>
+        <v>0.007936349040230372</v>
       </c>
       <c r="Q17">
-        <v>19.27814952843029</v>
+        <v>0.018843190912</v>
       </c>
       <c r="R17">
-        <v>19.27814952843029</v>
+        <v>0.169588718208</v>
       </c>
       <c r="S17">
-        <v>0.08117382141236971</v>
+        <v>7.411286247310499E-05</v>
       </c>
       <c r="T17">
-        <v>0.08117382141236971</v>
+        <v>0.0001080898892521164</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.21689974342459</v>
+        <v>0.264576</v>
       </c>
       <c r="H18">
-        <v>2.21689974342459</v>
+        <v>0.793728</v>
       </c>
       <c r="I18">
-        <v>0.09898395327412597</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J18">
-        <v>0.09898395327412597</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.11164899610158</v>
+        <v>1.763754333333333</v>
       </c>
       <c r="N18">
-        <v>3.11164899610158</v>
+        <v>5.291263</v>
       </c>
       <c r="O18">
-        <v>0.2934421572218294</v>
+        <v>0.1599302435334539</v>
       </c>
       <c r="P18">
-        <v>0.2934421572218294</v>
+        <v>0.1965417649063539</v>
       </c>
       <c r="Q18">
-        <v>6.898213861084976</v>
+        <v>0.4666470664959999</v>
       </c>
       <c r="R18">
-        <v>6.898213861084976</v>
+        <v>4.199823598464</v>
       </c>
       <c r="S18">
-        <v>0.02904606477910429</v>
+        <v>0.001835387118042267</v>
       </c>
       <c r="T18">
-        <v>0.02904606477910429</v>
+        <v>0.002676819970297907</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.21689974342459</v>
+        <v>0.264576</v>
       </c>
       <c r="H19">
-        <v>2.21689974342459</v>
+        <v>0.793728</v>
       </c>
       <c r="I19">
-        <v>0.09898395327412597</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J19">
-        <v>0.09898395327412597</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.73417441399742</v>
+        <v>3.0507295</v>
       </c>
       <c r="N19">
-        <v>2.73417441399742</v>
+        <v>6.101459</v>
       </c>
       <c r="O19">
-        <v>0.2578446474102063</v>
+        <v>0.2766280443193008</v>
       </c>
       <c r="P19">
-        <v>0.2578446474102063</v>
+        <v>0.2266361585813741</v>
       </c>
       <c r="Q19">
-        <v>6.061390556868959</v>
+        <v>0.807149808192</v>
       </c>
       <c r="R19">
-        <v>6.061390556868959</v>
+        <v>4.842898849152</v>
       </c>
       <c r="S19">
-        <v>0.02552248253123535</v>
+        <v>0.003174631250571854</v>
       </c>
       <c r="T19">
-        <v>0.02552248253123535</v>
+        <v>0.003086693535958031</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H20">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I20">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J20">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.71057019711211</v>
+        <v>3.1122635</v>
       </c>
       <c r="N20">
-        <v>1.71057019711211</v>
+        <v>6.224527</v>
       </c>
       <c r="O20">
-        <v>0.1613142772044078</v>
+        <v>0.2822077032432218</v>
       </c>
       <c r="P20">
-        <v>0.1613142772044078</v>
+        <v>0.2312074682901327</v>
       </c>
       <c r="Q20">
-        <v>3.792162631087587</v>
+        <v>1.285819215971</v>
       </c>
       <c r="R20">
-        <v>3.792162631087587</v>
+        <v>7.714915295826001</v>
       </c>
       <c r="S20">
-        <v>0.01596752487725051</v>
+        <v>0.005057303891022341</v>
       </c>
       <c r="T20">
-        <v>0.01596752487725051</v>
+        <v>0.004917215889871342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.413146</v>
+      </c>
+      <c r="H21">
+        <v>1.239438</v>
+      </c>
+      <c r="I21">
+        <v>0.01792050264008451</v>
+      </c>
+      <c r="J21">
+        <v>0.02126754782722214</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N21">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P21">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q21">
+        <v>1.245147402289333</v>
+      </c>
+      <c r="R21">
+        <v>11.206326620604</v>
+      </c>
+      <c r="S21">
+        <v>0.004897336051817277</v>
+      </c>
+      <c r="T21">
+        <v>0.00714251877214194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.413146</v>
+      </c>
+      <c r="H22">
+        <v>1.239438</v>
+      </c>
+      <c r="I22">
+        <v>0.01792050264008451</v>
+      </c>
+      <c r="J22">
+        <v>0.02126754782722214</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.049457</v>
+      </c>
+      <c r="O22">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P22">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q22">
+        <v>0.006810987240666666</v>
+      </c>
+      <c r="R22">
+        <v>0.061298885166</v>
+      </c>
+      <c r="S22">
+        <v>2.678854993461531E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.906975522242364E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.413146</v>
+      </c>
+      <c r="H23">
+        <v>1.239438</v>
+      </c>
+      <c r="I23">
+        <v>0.01792050264008451</v>
+      </c>
+      <c r="J23">
+        <v>0.02126754782722214</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.213661</v>
+      </c>
+      <c r="O23">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P23">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q23">
+        <v>0.02942439583533334</v>
+      </c>
+      <c r="R23">
+        <v>0.264819562518</v>
+      </c>
+      <c r="S23">
+        <v>0.000115730197294212</v>
+      </c>
+      <c r="T23">
+        <v>0.0001687866827866279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.413146</v>
+      </c>
+      <c r="H24">
+        <v>1.239438</v>
+      </c>
+      <c r="I24">
+        <v>0.01792050264008451</v>
+      </c>
+      <c r="J24">
+        <v>0.02126754782722214</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N24">
+        <v>5.291263</v>
+      </c>
+      <c r="O24">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P24">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q24">
+        <v>0.7286880477993333</v>
+      </c>
+      <c r="R24">
+        <v>6.558192430194</v>
+      </c>
+      <c r="S24">
+        <v>0.002866030351470619</v>
+      </c>
+      <c r="T24">
+        <v>0.004179961385192531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.413146</v>
+      </c>
+      <c r="H25">
+        <v>1.239438</v>
+      </c>
+      <c r="I25">
+        <v>0.01792050264008451</v>
+      </c>
+      <c r="J25">
+        <v>0.02126754782722214</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.0507295</v>
+      </c>
+      <c r="N25">
+        <v>6.101459</v>
+      </c>
+      <c r="O25">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P25">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q25">
+        <v>1.260396690007</v>
+      </c>
+      <c r="R25">
+        <v>7.562380140042</v>
+      </c>
+      <c r="S25">
+        <v>0.004957313598545444</v>
+      </c>
+      <c r="T25">
+        <v>0.004819995342007275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.21689974342459</v>
-      </c>
-      <c r="H21">
-        <v>2.21689974342459</v>
-      </c>
-      <c r="I21">
-        <v>0.09898395327412597</v>
-      </c>
-      <c r="J21">
-        <v>0.09898395327412597</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.04756672882646</v>
-      </c>
-      <c r="N21">
-        <v>3.04756672882646</v>
-      </c>
-      <c r="O21">
-        <v>0.2873989181635564</v>
-      </c>
-      <c r="P21">
-        <v>0.2873989181635564</v>
-      </c>
-      <c r="Q21">
-        <v>6.756149899204696</v>
-      </c>
-      <c r="R21">
-        <v>6.756149899204696</v>
-      </c>
-      <c r="S21">
-        <v>0.02844788108653582</v>
-      </c>
-      <c r="T21">
-        <v>0.02844788108653582</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H26">
+        <v>19.241697</v>
+      </c>
+      <c r="I26">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J26">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.1122635</v>
+      </c>
+      <c r="N26">
+        <v>6.224527</v>
+      </c>
+      <c r="O26">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P26">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q26">
+        <v>19.9617437503865</v>
+      </c>
+      <c r="R26">
+        <v>119.770462502319</v>
+      </c>
+      <c r="S26">
+        <v>0.07851228468707019</v>
+      </c>
+      <c r="T26">
+        <v>0.07633748379224274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H27">
+        <v>19.241697</v>
+      </c>
+      <c r="I27">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J27">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N27">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P27">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q27">
+        <v>19.33033280824733</v>
+      </c>
+      <c r="R27">
+        <v>173.972995274226</v>
+      </c>
+      <c r="S27">
+        <v>0.07602885857642282</v>
+      </c>
+      <c r="T27">
+        <v>0.110884273380651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H28">
+        <v>19.241697</v>
+      </c>
+      <c r="I28">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J28">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.049457</v>
+      </c>
+      <c r="O28">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P28">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q28">
+        <v>0.1057374009476667</v>
+      </c>
+      <c r="R28">
+        <v>0.9516366085290001</v>
+      </c>
+      <c r="S28">
+        <v>0.0004158797462327584</v>
+      </c>
+      <c r="T28">
+        <v>0.0006065397315993567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H29">
+        <v>19.241697</v>
+      </c>
+      <c r="I29">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J29">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.213661</v>
+      </c>
+      <c r="O29">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P29">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q29">
+        <v>0.4568000247463335</v>
+      </c>
+      <c r="R29">
+        <v>4.111200222717001</v>
+      </c>
+      <c r="S29">
+        <v>0.001796657347995985</v>
+      </c>
+      <c r="T29">
+        <v>0.002620334545023963</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H30">
+        <v>19.241697</v>
+      </c>
+      <c r="I30">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J30">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N30">
+        <v>5.291263</v>
+      </c>
+      <c r="O30">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P30">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q30">
+        <v>11.31254215481233</v>
+      </c>
+      <c r="R30">
+        <v>101.812879393311</v>
+      </c>
+      <c r="S30">
+        <v>0.04449378477648834</v>
+      </c>
+      <c r="T30">
+        <v>0.06489195138891576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H31">
+        <v>19.241697</v>
+      </c>
+      <c r="I31">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J31">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.0507295</v>
+      </c>
+      <c r="N31">
+        <v>6.101459</v>
+      </c>
+      <c r="O31">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P31">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q31">
+        <v>19.5670708893205</v>
+      </c>
+      <c r="R31">
+        <v>117.402425335923</v>
+      </c>
+      <c r="S31">
+        <v>0.07695998202184463</v>
+      </c>
+      <c r="T31">
+        <v>0.0748281801205993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.26402</v>
+      </c>
+      <c r="H32">
+        <v>4.52804</v>
+      </c>
+      <c r="I32">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J32">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.1122635</v>
+      </c>
+      <c r="N32">
+        <v>6.224527</v>
+      </c>
+      <c r="O32">
+        <v>0.2822077032432218</v>
+      </c>
+      <c r="P32">
+        <v>0.2312074682901327</v>
+      </c>
+      <c r="Q32">
+        <v>7.04622680927</v>
+      </c>
+      <c r="R32">
+        <v>28.18490723708</v>
+      </c>
+      <c r="S32">
+        <v>0.02771377952431441</v>
+      </c>
+      <c r="T32">
+        <v>0.01796406939110551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.26402</v>
+      </c>
+      <c r="H33">
+        <v>4.52804</v>
+      </c>
+      <c r="I33">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J33">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.013819333333333</v>
+      </c>
+      <c r="N33">
+        <v>9.041457999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2732811768830041</v>
+      </c>
+      <c r="P33">
+        <v>0.3358411994729183</v>
+      </c>
+      <c r="Q33">
+        <v>6.823347247053332</v>
+      </c>
+      <c r="R33">
+        <v>40.94008348231999</v>
+      </c>
+      <c r="S33">
+        <v>0.02683716354033526</v>
+      </c>
+      <c r="T33">
+        <v>0.02609377048388833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.26402</v>
+      </c>
+      <c r="H34">
+        <v>4.52804</v>
+      </c>
+      <c r="I34">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J34">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01648566666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.049457</v>
+      </c>
+      <c r="O34">
+        <v>0.001494854830393808</v>
+      </c>
+      <c r="P34">
+        <v>0.001837059708990754</v>
+      </c>
+      <c r="Q34">
+        <v>0.03732387904666666</v>
+      </c>
+      <c r="R34">
+        <v>0.22394327428</v>
+      </c>
+      <c r="S34">
+        <v>0.0001467999516465553</v>
+      </c>
+      <c r="T34">
+        <v>0.000142733573149559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.26402</v>
+      </c>
+      <c r="H35">
+        <v>4.52804</v>
+      </c>
+      <c r="I35">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J35">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.07122033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.213661</v>
+      </c>
+      <c r="O35">
+        <v>0.006457977190625623</v>
+      </c>
+      <c r="P35">
+        <v>0.007936349040230372</v>
+      </c>
+      <c r="Q35">
+        <v>0.1612442590733333</v>
+      </c>
+      <c r="R35">
+        <v>0.96746555444</v>
+      </c>
+      <c r="S35">
+        <v>0.0006341958563753294</v>
+      </c>
+      <c r="T35">
+        <v>0.0006166285454578306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.26402</v>
+      </c>
+      <c r="H36">
+        <v>4.52804</v>
+      </c>
+      <c r="I36">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J36">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.763754333333333</v>
+      </c>
+      <c r="N36">
+        <v>5.291263</v>
+      </c>
+      <c r="O36">
+        <v>0.1599302435334539</v>
+      </c>
+      <c r="P36">
+        <v>0.1965417649063539</v>
+      </c>
+      <c r="Q36">
+        <v>3.993175085753333</v>
+      </c>
+      <c r="R36">
+        <v>23.95905051452</v>
+      </c>
+      <c r="S36">
+        <v>0.01570570702932259</v>
+      </c>
+      <c r="T36">
+        <v>0.01527065682237206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.26402</v>
+      </c>
+      <c r="H37">
+        <v>4.52804</v>
+      </c>
+      <c r="I37">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J37">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.0507295</v>
+      </c>
+      <c r="N37">
+        <v>6.101459</v>
+      </c>
+      <c r="O37">
+        <v>0.2766280443193008</v>
+      </c>
+      <c r="P37">
+        <v>0.2266361585813741</v>
+      </c>
+      <c r="Q37">
+        <v>6.90691260259</v>
+      </c>
+      <c r="R37">
+        <v>27.62765041036</v>
+      </c>
+      <c r="S37">
+        <v>0.02716583758133651</v>
+      </c>
+      <c r="T37">
+        <v>0.01760889347302779</v>
       </c>
     </row>
   </sheetData>
